--- a/MCULE-shipped compounds to Nick Heaton lab.xlsx
+++ b/MCULE-shipped compounds to Nick Heaton lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadia\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E83790-6201-4552-B5E7-FD9CE8D0FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169C406-1632-4583-9225-62DC1221DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="389">
   <si>
     <t>#</t>
   </si>
@@ -1097,13 +1097,108 @@
   </si>
   <si>
     <t>Solvent (DMSO) ml</t>
+  </si>
+  <si>
+    <t>RA number</t>
+  </si>
+  <si>
+    <t>RA-0138504</t>
+  </si>
+  <si>
+    <t>RA-0138485</t>
+  </si>
+  <si>
+    <t>RA-0138505</t>
+  </si>
+  <si>
+    <t>RA-0138498</t>
+  </si>
+  <si>
+    <t>RA-0138478</t>
+  </si>
+  <si>
+    <t>RA-0138479</t>
+  </si>
+  <si>
+    <t>RA-0138502</t>
+  </si>
+  <si>
+    <t>RA-0138497</t>
+  </si>
+  <si>
+    <t>RA-0138496</t>
+  </si>
+  <si>
+    <t>RA-0138495</t>
+  </si>
+  <si>
+    <t>RA-0138499</t>
+  </si>
+  <si>
+    <t>RA-0138484</t>
+  </si>
+  <si>
+    <t>RA-0138480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RA-0138491</t>
+  </si>
+  <si>
+    <t>RA-0138494</t>
+  </si>
+  <si>
+    <t>RA-0138493</t>
+  </si>
+  <si>
+    <t>RA-0138492</t>
+  </si>
+  <si>
+    <t>RA-0138483</t>
+  </si>
+  <si>
+    <t>RA-0138489</t>
+  </si>
+  <si>
+    <t>RA-0138486</t>
+  </si>
+  <si>
+    <t>RA-0138488</t>
+  </si>
+  <si>
+    <t>RA-0138482</t>
+  </si>
+  <si>
+    <t>RA-0138487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RA-0138481</t>
+  </si>
+  <si>
+    <t>RA-0138490</t>
+  </si>
+  <si>
+    <t>RA-0138503</t>
+  </si>
+  <si>
+    <t>RA-0138477</t>
+  </si>
+  <si>
+    <t>RA-0138476</t>
+  </si>
+  <si>
+    <t>RA-0138500</t>
+  </si>
+  <si>
+    <t>RA-0138501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,15 +1207,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,19 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,45 +1274,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,2237 +1607,2858 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="21" style="8" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="42.6640625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="39.33203125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="29.44140625" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" customWidth="1"/>
+    <col min="12" max="12" width="67.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" customWidth="1"/>
+    <col min="17" max="17" width="21" style="4" customWidth="1"/>
+    <col min="18" max="18" width="27.109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="42.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="39.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="6">
         <v>221.25</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="6">
         <v>90</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="3">
         <v>5</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="3">
         <v>221.25</v>
       </c>
-      <c r="R2" s="13">
+      <c r="S2" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="3">
         <v>22.6</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="6">
         <v>249.31</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="6">
         <v>90</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="3">
         <v>5</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="3">
         <v>249.31</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S3" s="3">
         <v>2.0059999999999998</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="3">
         <v>20.059999999999999</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="6">
         <v>207.22</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="6">
         <v>90</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="3">
         <v>5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="3">
         <v>207.22</v>
       </c>
-      <c r="R4" s="13">
+      <c r="S4" s="3">
         <v>2.4129</v>
       </c>
-      <c r="S4" s="10">
+      <c r="T4" s="3">
         <v>24.13</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="6">
         <v>243.26</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="6">
         <v>90</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="3">
         <v>5</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="3">
         <v>243.26</v>
       </c>
-      <c r="R5" s="13">
+      <c r="S5" s="3">
         <v>2.0554000000000001</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="3">
         <v>20.55</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="6">
         <v>179.22</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="6">
         <v>95</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="3">
         <v>5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="3">
         <v>179.22</v>
       </c>
-      <c r="R6" s="13">
+      <c r="S6" s="3">
         <v>2.7898999999999998</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="3">
         <v>27.9</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="6">
         <v>163.22</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="6">
         <v>90</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="3">
         <v>5</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="3">
         <v>163.22</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="3">
         <v>3.0634000000000001</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="3">
         <v>30.63</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="6">
         <v>300.35000000000002</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="6">
         <v>90</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="3">
         <v>5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="3">
         <v>300.35000000000002</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S8" s="3">
         <v>1.6647000000000001</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="6">
         <v>270.33</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="6">
         <v>90</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="3">
         <v>270.33</v>
       </c>
-      <c r="R9" s="13">
+      <c r="S9" s="3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="3">
         <v>4.07</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="6" t="s">
         <v>110</v>
       </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="6">
         <v>274.29000000000002</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="6">
         <v>90</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="3">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="3">
         <v>274.29000000000002</v>
       </c>
-      <c r="R10" s="13">
+      <c r="S10" s="3">
         <v>0.437</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="3">
         <v>4.37</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="6">
         <v>270.33</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="6">
         <v>90</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="3">
         <v>270.33</v>
       </c>
-      <c r="R11" s="13">
+      <c r="S11" s="3">
         <v>0.37</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="3">
         <v>3.7</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="6">
         <v>286.32</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="6">
         <v>90</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="3">
         <v>5</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="3">
         <v>286.32</v>
       </c>
-      <c r="R12" s="13">
+      <c r="S12" s="3">
         <v>1.7463</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="3">
         <v>17.46</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="6">
         <v>298.38</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="6">
         <v>90</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="3">
         <v>298.38</v>
       </c>
-      <c r="R13" s="13">
+      <c r="S13" s="3">
         <v>1.7092000000000001</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="3">
         <v>17.09</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="6">
         <v>349.22</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="6">
         <v>90</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="3">
         <v>3.2</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="3">
         <v>349.22</v>
       </c>
-      <c r="R14" s="13">
+      <c r="S14" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="3">
         <v>9.16</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="6">
         <v>149.19</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="6">
         <v>95</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="3">
         <v>149.19</v>
       </c>
-      <c r="R15" s="13">
+      <c r="S15" s="3">
         <v>3.4184999999999999</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="3">
         <v>34.18</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="W15" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="6">
         <v>368.21</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="6">
         <v>92</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="3">
         <v>368.21</v>
       </c>
-      <c r="R16" s="13">
+      <c r="S16" s="3">
         <v>1.4394</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="3">
         <v>14.39</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="W16" s="6" t="s">
         <v>189</v>
       </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:40" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="6">
         <v>447.11</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="6">
         <v>92</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="3">
         <v>447.11</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="3">
         <v>1.2078</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="3">
         <v>12.08</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V17" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="W17" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="6">
         <v>378.22</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="6">
         <v>92</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="3">
         <v>378.22</v>
       </c>
-      <c r="R18" s="13">
+      <c r="S18" s="3">
         <v>1.4277</v>
       </c>
-      <c r="S18" s="10">
+      <c r="T18" s="3">
         <v>14.28</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="V18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="W18" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="6">
         <v>392.25</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="6">
         <v>92</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="3">
         <v>392.25</v>
       </c>
-      <c r="R19" s="13">
+      <c r="S19" s="3">
         <v>1.3767</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="3">
         <v>13.77</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="V19" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="W19" s="6" t="s">
         <v>222</v>
       </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="6">
         <v>408.25</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="6">
         <v>92</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="3">
         <v>408.25</v>
       </c>
-      <c r="R20" s="13">
+      <c r="S20" s="3">
         <v>1.2982</v>
       </c>
-      <c r="S20" s="10">
+      <c r="T20" s="3">
         <v>12.98</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="U20" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="V20" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="W20" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="6">
         <v>404.26</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="6">
         <v>92</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="3">
         <v>404.26</v>
       </c>
-      <c r="R21" s="13">
+      <c r="S21" s="3">
         <v>1.3358000000000001</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="3">
         <v>13.36</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="U21" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="V21" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="W21" s="6" t="s">
         <v>244</v>
       </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="6">
         <v>404.26</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="6">
         <v>92</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="3">
         <v>404.26</v>
       </c>
-      <c r="R22" s="13">
+      <c r="S22" s="3">
         <v>1.3109999999999999</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="3">
         <v>13.11</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="U22" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="V22" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="W22" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="6">
         <v>299.32</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="6">
         <v>92</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q23" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="3">
         <v>299.32</v>
       </c>
-      <c r="R23" s="13">
+      <c r="S23" s="3">
         <v>1.7706999999999999</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="3">
         <v>17.71</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="W23" s="6" t="s">
         <v>266</v>
       </c>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="6">
         <v>391.26</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="6">
         <v>92</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="P24" s="7">
+      <c r="Q24" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="3">
         <v>391.26</v>
       </c>
-      <c r="R24" s="13">
+      <c r="S24" s="3">
         <v>1.3802000000000001</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="3">
         <v>13.8</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="U24" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="V24" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="W24" s="6" t="s">
         <v>277</v>
       </c>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="6">
         <v>313.35000000000002</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="6">
         <v>92</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="P25" s="7">
+      <c r="Q25" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="3">
         <v>313.35000000000002</v>
       </c>
-      <c r="R25" s="13">
+      <c r="S25" s="3">
         <v>1.7233000000000001</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="3">
         <v>17.23</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="U25" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="V25" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="W25" s="6" t="s">
         <v>288</v>
       </c>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="6">
         <v>407.26</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="6">
         <v>92</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="P26" s="7">
+      <c r="Q26" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="3">
         <v>407.26</v>
       </c>
-      <c r="R26" s="13">
+      <c r="S26" s="3">
         <v>1.3013999999999999</v>
       </c>
-      <c r="S26" s="10">
+      <c r="T26" s="3">
         <v>13.01</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="V26" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="W26" s="6" t="s">
         <v>299</v>
       </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:40" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="6">
         <v>329.35</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="6">
         <v>92</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="3">
         <v>329.35</v>
       </c>
-      <c r="R27" s="13">
+      <c r="S27" s="3">
         <v>1.6395999999999999</v>
       </c>
-      <c r="S27" s="10">
+      <c r="T27" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="U27" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="V27" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="W27" s="6" t="s">
         <v>310</v>
       </c>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="6">
         <v>313.35000000000002</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="6">
         <v>92</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="P28" s="7">
+      <c r="Q28" s="3">
         <v>5.4</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="3">
         <v>313.35000000000002</v>
       </c>
-      <c r="R28" s="13">
+      <c r="S28" s="3">
         <v>1.7233000000000001</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="3">
         <v>17.23</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="V28" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="W28" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="6">
         <v>287.31</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="6">
         <v>92</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="P29" s="7">
+      <c r="Q29" s="3">
         <v>5.3</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="3">
         <v>287.31</v>
       </c>
-      <c r="R29" s="13">
+      <c r="S29" s="3">
         <v>1.8447</v>
       </c>
-      <c r="S29" s="10">
+      <c r="T29" s="3">
         <v>18.45</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="W29" s="6" t="s">
         <v>332</v>
       </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="6">
         <v>177.24</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="6">
         <v>90</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="3">
         <v>5.2</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="3">
         <v>177.24</v>
       </c>
-      <c r="R30" s="13">
+      <c r="S30" s="3">
         <v>2.9339</v>
       </c>
-      <c r="S30" s="10">
+      <c r="T30" s="3">
         <v>29.34</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="W30" s="6" t="s">
         <v>344</v>
       </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="6">
         <v>173.21</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="6">
         <v>90</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="P31" s="7">
+      <c r="Q31" s="3">
         <v>5.2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="3">
         <v>173.21</v>
       </c>
-      <c r="R31" s="13">
+      <c r="S31" s="3">
         <v>3.0021</v>
       </c>
-      <c r="S31" s="10">
+      <c r="T31" s="3">
         <v>30.02</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="U31" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="V31" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="W31" s="6" t="s">
         <v>355</v>
       </c>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="U3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="V3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="U4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="V4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="U5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="V5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="U6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="V6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="U7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="V7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="U8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="V8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="U9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="V9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="U10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="V10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="U11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="V11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="U12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="V12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="U13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="V13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="U14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="V14" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="U15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="V15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="U16" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="V16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="U17" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="V17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="U18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="V18" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="U19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="V19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F20" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="U20" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="V20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="U21" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="V21" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F22" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="U22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="V22" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="U23" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="V23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="U24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="V24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="U25" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="V25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F26" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="U26" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="V26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F27" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="U27" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="V27" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F28" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="U28" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="V28" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F29" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="U29" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="V29" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F30" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="U30" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="V30" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F31" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="U31" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="V31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="W4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="W5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="W6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="W7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="W8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="W10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="W11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="W12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="W13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="W14" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="W15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V16" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="W16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V17" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="W17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="W18" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="W19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G20" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="V20" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="W20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="V21" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="W21" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G22" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="V22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="W22" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="V23" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="W23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="V24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="W24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G25" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="V25" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="W25" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G26" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="V26" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="W26" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G27" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="V27" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="W27" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G28" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="V28" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="W28" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G29" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="V29" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="W29" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G30" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="V30" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="W30" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G31" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="V31" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="W31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
   </hyperlinks>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
